--- a/databank/tabularTest-sheet.xlsx
+++ b/databank/tabularTest-sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="715">
   <si>
     <t>__yearly__</t>
   </si>
@@ -1004,6 +1004,336 @@
   </si>
   <si>
     <t>EOF</t>
+  </si>
+  <si>
+    <t>__yearly__</t>
+  </si>
+  <si>
+    <t>2020Y</t>
+  </si>
+  <si>
+    <t>2021Y</t>
+  </si>
+  <si>
+    <t>2022Y</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>__monthly__</t>
+  </si>
+  <si>
+    <t>2021M01</t>
+  </si>
+  <si>
+    <t>2021M02</t>
+  </si>
+  <si>
+    <t>2021M03</t>
+  </si>
+  <si>
+    <t>2021M04</t>
+  </si>
+  <si>
+    <t>2021M05</t>
+  </si>
+  <si>
+    <t>2021M06</t>
+  </si>
+  <si>
+    <t>2021M07</t>
+  </si>
+  <si>
+    <t>2021M08</t>
+  </si>
+  <si>
+    <t>2021M09</t>
+  </si>
+  <si>
+    <t>2021M10</t>
+  </si>
+  <si>
+    <t>2021M11</t>
+  </si>
+  <si>
+    <t>2021M12</t>
+  </si>
+  <si>
+    <t>2022M01</t>
+  </si>
+  <si>
+    <t>2022M02</t>
+  </si>
+  <si>
+    <t>2022M03</t>
+  </si>
+  <si>
+    <t>2022M04</t>
+  </si>
+  <si>
+    <t>2022M05</t>
+  </si>
+  <si>
+    <t>2022M06</t>
+  </si>
+  <si>
+    <t>2022M07</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>__daily__</t>
+  </si>
+  <si>
+    <t>2020-Jan-01</t>
+  </si>
+  <si>
+    <t>2020-Jan-02</t>
+  </si>
+  <si>
+    <t>2020-Jan-03</t>
+  </si>
+  <si>
+    <t>2020-Jan-04</t>
+  </si>
+  <si>
+    <t>2020-Jan-05</t>
+  </si>
+  <si>
+    <t>2020-Jan-06</t>
+  </si>
+  <si>
+    <t>2020-Jan-07</t>
+  </si>
+  <si>
+    <t>2020-Jan-08</t>
+  </si>
+  <si>
+    <t>2020-Jan-09</t>
+  </si>
+  <si>
+    <t>2020-Jan-10</t>
+  </si>
+  <si>
+    <t>2020-Jan-11</t>
+  </si>
+  <si>
+    <t>2020-Jan-12</t>
+  </si>
+  <si>
+    <t>2020-Jan-13</t>
+  </si>
+  <si>
+    <t>2020-Jan-14</t>
+  </si>
+  <si>
+    <t>2020-Jan-15</t>
+  </si>
+  <si>
+    <t>2020-Jan-16</t>
+  </si>
+  <si>
+    <t>2020-Jan-17</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>__nan__</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>__eof__</t>
+  </si>
+  <si>
+    <t>__yearly__</t>
+  </si>
+  <si>
+    <t>2020Y</t>
+  </si>
+  <si>
+    <t>2021Y</t>
+  </si>
+  <si>
+    <t>2022Y</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>__monthly__</t>
+  </si>
+  <si>
+    <t>2021M01</t>
+  </si>
+  <si>
+    <t>2021M02</t>
+  </si>
+  <si>
+    <t>2021M03</t>
+  </si>
+  <si>
+    <t>2021M04</t>
+  </si>
+  <si>
+    <t>2021M05</t>
+  </si>
+  <si>
+    <t>2021M06</t>
+  </si>
+  <si>
+    <t>2021M07</t>
+  </si>
+  <si>
+    <t>2021M08</t>
+  </si>
+  <si>
+    <t>2021M09</t>
+  </si>
+  <si>
+    <t>2021M10</t>
+  </si>
+  <si>
+    <t>2021M11</t>
+  </si>
+  <si>
+    <t>2021M12</t>
+  </si>
+  <si>
+    <t>2022M01</t>
+  </si>
+  <si>
+    <t>2022M02</t>
+  </si>
+  <si>
+    <t>2022M03</t>
+  </si>
+  <si>
+    <t>2022M04</t>
+  </si>
+  <si>
+    <t>2022M05</t>
+  </si>
+  <si>
+    <t>2022M06</t>
+  </si>
+  <si>
+    <t>2022M07</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>__daily__</t>
+  </si>
+  <si>
+    <t>2020-Jan-01</t>
+  </si>
+  <si>
+    <t>2020-Jan-02</t>
+  </si>
+  <si>
+    <t>2020-Jan-03</t>
+  </si>
+  <si>
+    <t>2020-Jan-04</t>
+  </si>
+  <si>
+    <t>2020-Jan-05</t>
+  </si>
+  <si>
+    <t>2020-Jan-06</t>
+  </si>
+  <si>
+    <t>2020-Jan-07</t>
+  </si>
+  <si>
+    <t>2020-Jan-08</t>
+  </si>
+  <si>
+    <t>2020-Jan-09</t>
+  </si>
+  <si>
+    <t>2020-Jan-10</t>
+  </si>
+  <si>
+    <t>2020-Jan-11</t>
+  </si>
+  <si>
+    <t>2020-Jan-12</t>
+  </si>
+  <si>
+    <t>2020-Jan-13</t>
+  </si>
+  <si>
+    <t>2020-Jan-14</t>
+  </si>
+  <si>
+    <t>2020-Jan-15</t>
+  </si>
+  <si>
+    <t>2020-Jan-16</t>
+  </si>
+  <si>
+    <t>2020-Jan-17</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>__nan__</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>__eof__</t>
   </si>
   <si>
     <t>__yearly__</t>
@@ -1897,40 +2227,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>550</v>
+        <v>660</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>554</v>
+        <v>664</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>555</v>
+        <v>665</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>575</v>
+        <v>685</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>577</v>
+        <v>687</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>579</v>
+        <v>689</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>597</v>
+        <v>707</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>599</v>
+        <v>709</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>601</v>
+        <v>711</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>602</v>
+        <v>712</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>603</v>
+        <v>713</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>604</v>
+        <v>714</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>437</v>
@@ -1948,23 +2278,23 @@
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
       <c r="D2" s="0" t="s">
-        <v>576</v>
+        <v>686</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>578</v>
+        <v>688</v>
       </c>
       <c r="F2" s="0"/>
       <c r="G2" s="0" t="s">
-        <v>598</v>
+        <v>708</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>600</v>
+        <v>710</v>
       </c>
       <c r="I2" s="0"/>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
       <c r="L2" s="0" t="s">
-        <v>604</v>
+        <v>714</v>
       </c>
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
@@ -1975,20 +2305,20 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>551</v>
+        <v>661</v>
       </c>
       <c r="B3" s="0">
         <v>13</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>556</v>
+        <v>666</v>
       </c>
       <c r="D3" s="0">
         <v>100</v>
       </c>
       <c r="E3" s="0"/>
       <c r="F3" s="0" t="s">
-        <v>580</v>
+        <v>690</v>
       </c>
       <c r="G3" s="0">
         <v>1</v>
@@ -2000,7 +2330,7 @@
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
       <c r="L3" s="0" t="s">
-        <v>604</v>
+        <v>714</v>
       </c>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
@@ -2011,20 +2341,20 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>552</v>
+        <v>662</v>
       </c>
       <c r="B4" s="0">
         <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>557</v>
+        <v>667</v>
       </c>
       <c r="D4" s="0">
         <v>200</v>
       </c>
       <c r="E4" s="0"/>
       <c r="F4" s="0" t="s">
-        <v>581</v>
+        <v>691</v>
       </c>
       <c r="G4" s="0">
         <v>2</v>
@@ -2034,7 +2364,7 @@
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
       <c r="L4" s="0" t="s">
-        <v>604</v>
+        <v>714</v>
       </c>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
@@ -2045,20 +2375,20 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>553</v>
+        <v>663</v>
       </c>
       <c r="B5" s="0">
         <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>558</v>
+        <v>668</v>
       </c>
       <c r="D5" s="0">
         <v>300</v>
       </c>
       <c r="E5" s="0"/>
       <c r="F5" s="0" t="s">
-        <v>582</v>
+        <v>692</v>
       </c>
       <c r="G5" s="0">
         <v>3</v>
@@ -2068,7 +2398,7 @@
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
       <c r="L5" s="0" t="s">
-        <v>604</v>
+        <v>714</v>
       </c>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
@@ -2081,14 +2411,14 @@
       <c r="A6" s="0"/>
       <c r="B6" s="0"/>
       <c r="C6" s="0" t="s">
-        <v>559</v>
+        <v>669</v>
       </c>
       <c r="D6" s="0">
         <v>400</v>
       </c>
       <c r="E6" s="0"/>
       <c r="F6" s="0" t="s">
-        <v>583</v>
+        <v>693</v>
       </c>
       <c r="G6" s="0">
         <v>4</v>
@@ -2098,7 +2428,7 @@
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
       <c r="L6" s="0" t="s">
-        <v>604</v>
+        <v>714</v>
       </c>
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
@@ -2111,14 +2441,14 @@
       <c r="A7" s="0"/>
       <c r="B7" s="0"/>
       <c r="C7" s="0" t="s">
-        <v>560</v>
+        <v>670</v>
       </c>
       <c r="D7" s="0">
         <v>500</v>
       </c>
       <c r="E7" s="0"/>
       <c r="F7" s="0" t="s">
-        <v>584</v>
+        <v>694</v>
       </c>
       <c r="G7" s="0">
         <v>5</v>
@@ -2128,7 +2458,7 @@
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
       <c r="L7" s="0" t="s">
-        <v>604</v>
+        <v>714</v>
       </c>
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
@@ -2141,14 +2471,14 @@
       <c r="A8" s="0"/>
       <c r="B8" s="0"/>
       <c r="C8" s="0" t="s">
-        <v>561</v>
+        <v>671</v>
       </c>
       <c r="D8" s="0">
         <v>600</v>
       </c>
       <c r="E8" s="0"/>
       <c r="F8" s="0" t="s">
-        <v>585</v>
+        <v>695</v>
       </c>
       <c r="G8" s="0">
         <v>6</v>
@@ -2158,7 +2488,7 @@
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
       <c r="L8" s="0" t="s">
-        <v>604</v>
+        <v>714</v>
       </c>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
@@ -2171,14 +2501,14 @@
       <c r="A9" s="0"/>
       <c r="B9" s="0"/>
       <c r="C9" s="0" t="s">
-        <v>562</v>
+        <v>672</v>
       </c>
       <c r="D9" s="0">
         <v>700</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0" t="s">
-        <v>586</v>
+        <v>696</v>
       </c>
       <c r="G9" s="0">
         <v>7</v>
@@ -2188,7 +2518,7 @@
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
       <c r="L9" s="0" t="s">
-        <v>604</v>
+        <v>714</v>
       </c>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
@@ -2201,14 +2531,14 @@
       <c r="A10" s="0"/>
       <c r="B10" s="0"/>
       <c r="C10" s="0" t="s">
-        <v>563</v>
+        <v>673</v>
       </c>
       <c r="D10" s="0">
         <v>800</v>
       </c>
       <c r="E10" s="0"/>
       <c r="F10" s="0" t="s">
-        <v>587</v>
+        <v>697</v>
       </c>
       <c r="G10" s="0">
         <v>8</v>
@@ -2218,7 +2548,7 @@
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
       <c r="L10" s="0" t="s">
-        <v>604</v>
+        <v>714</v>
       </c>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
@@ -2231,14 +2561,14 @@
       <c r="A11" s="0"/>
       <c r="B11" s="0"/>
       <c r="C11" s="0" t="s">
-        <v>564</v>
+        <v>674</v>
       </c>
       <c r="D11" s="0">
         <v>900</v>
       </c>
       <c r="E11" s="0"/>
       <c r="F11" s="0" t="s">
-        <v>588</v>
+        <v>698</v>
       </c>
       <c r="G11" s="0">
         <v>9</v>
@@ -2248,7 +2578,7 @@
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
       <c r="L11" s="0" t="s">
-        <v>604</v>
+        <v>714</v>
       </c>
       <c r="M11" s="0"/>
       <c r="N11" s="0"/>
@@ -2261,14 +2591,14 @@
       <c r="A12" s="0"/>
       <c r="B12" s="0"/>
       <c r="C12" s="0" t="s">
-        <v>565</v>
+        <v>675</v>
       </c>
       <c r="D12" s="0">
         <v>1000</v>
       </c>
       <c r="E12" s="0"/>
       <c r="F12" s="0" t="s">
-        <v>589</v>
+        <v>699</v>
       </c>
       <c r="G12" s="0">
         <v>10</v>
@@ -2278,7 +2608,7 @@
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
       <c r="L12" s="0" t="s">
-        <v>604</v>
+        <v>714</v>
       </c>
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
@@ -2291,14 +2621,14 @@
       <c r="A13" s="0"/>
       <c r="B13" s="0"/>
       <c r="C13" s="0" t="s">
-        <v>566</v>
+        <v>676</v>
       </c>
       <c r="D13" s="0">
         <v>1100</v>
       </c>
       <c r="E13" s="0"/>
       <c r="F13" s="0" t="s">
-        <v>590</v>
+        <v>700</v>
       </c>
       <c r="G13" s="0">
         <v>11</v>
@@ -2308,7 +2638,7 @@
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
       <c r="L13" s="0" t="s">
-        <v>604</v>
+        <v>714</v>
       </c>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
@@ -2321,14 +2651,14 @@
       <c r="A14" s="0"/>
       <c r="B14" s="0"/>
       <c r="C14" s="0" t="s">
-        <v>567</v>
+        <v>677</v>
       </c>
       <c r="D14" s="0">
         <v>1200</v>
       </c>
       <c r="E14" s="0"/>
       <c r="F14" s="0" t="s">
-        <v>591</v>
+        <v>701</v>
       </c>
       <c r="G14" s="0">
         <v>12</v>
@@ -2338,7 +2668,7 @@
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
       <c r="L14" s="0" t="s">
-        <v>604</v>
+        <v>714</v>
       </c>
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
@@ -2351,14 +2681,14 @@
       <c r="A15" s="0"/>
       <c r="B15" s="0"/>
       <c r="C15" s="0" t="s">
-        <v>568</v>
+        <v>678</v>
       </c>
       <c r="D15" s="0">
         <v>1300</v>
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0" t="s">
-        <v>592</v>
+        <v>702</v>
       </c>
       <c r="G15" s="0">
         <v>13</v>
@@ -2368,7 +2698,7 @@
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
       <c r="L15" s="0" t="s">
-        <v>604</v>
+        <v>714</v>
       </c>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
@@ -2381,14 +2711,14 @@
       <c r="A16" s="0"/>
       <c r="B16" s="0"/>
       <c r="C16" s="0" t="s">
-        <v>569</v>
+        <v>679</v>
       </c>
       <c r="D16" s="0">
         <v>1400</v>
       </c>
       <c r="E16" s="0"/>
       <c r="F16" s="0" t="s">
-        <v>593</v>
+        <v>703</v>
       </c>
       <c r="G16" s="0">
         <v>14</v>
@@ -2398,7 +2728,7 @@
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
       <c r="L16" s="0" t="s">
-        <v>604</v>
+        <v>714</v>
       </c>
       <c r="M16" s="0"/>
       <c r="N16" s="0"/>
@@ -2411,14 +2741,14 @@
       <c r="A17" s="0"/>
       <c r="B17" s="0"/>
       <c r="C17" s="0" t="s">
-        <v>570</v>
+        <v>680</v>
       </c>
       <c r="D17" s="0">
         <v>1500</v>
       </c>
       <c r="E17" s="0"/>
       <c r="F17" s="0" t="s">
-        <v>594</v>
+        <v>704</v>
       </c>
       <c r="G17" s="0">
         <v>15</v>
@@ -2428,7 +2758,7 @@
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
       <c r="L17" s="0" t="s">
-        <v>604</v>
+        <v>714</v>
       </c>
       <c r="M17" s="0"/>
       <c r="N17" s="0"/>
@@ -2441,14 +2771,14 @@
       <c r="A18" s="0"/>
       <c r="B18" s="0"/>
       <c r="C18" s="0" t="s">
-        <v>571</v>
+        <v>681</v>
       </c>
       <c r="D18" s="0">
         <v>1600</v>
       </c>
       <c r="E18" s="0"/>
       <c r="F18" s="0" t="s">
-        <v>595</v>
+        <v>705</v>
       </c>
       <c r="G18" s="0">
         <v>16</v>
@@ -2458,7 +2788,7 @@
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
       <c r="L18" s="0" t="s">
-        <v>604</v>
+        <v>714</v>
       </c>
       <c r="M18" s="0"/>
       <c r="N18" s="0"/>
@@ -2471,14 +2801,14 @@
       <c r="A19" s="0"/>
       <c r="B19" s="0"/>
       <c r="C19" s="0" t="s">
-        <v>572</v>
+        <v>682</v>
       </c>
       <c r="D19" s="0">
         <v>1700</v>
       </c>
       <c r="E19" s="0"/>
       <c r="F19" s="0" t="s">
-        <v>596</v>
+        <v>706</v>
       </c>
       <c r="G19" s="0">
         <v>17</v>
@@ -2490,7 +2820,7 @@
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
       <c r="L19" s="0" t="s">
-        <v>604</v>
+        <v>714</v>
       </c>
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
@@ -2503,7 +2833,7 @@
       <c r="A20" s="0"/>
       <c r="B20" s="0"/>
       <c r="C20" s="0" t="s">
-        <v>573</v>
+        <v>683</v>
       </c>
       <c r="D20" s="0">
         <v>1800</v>
@@ -2516,7 +2846,7 @@
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
       <c r="L20" s="0" t="s">
-        <v>604</v>
+        <v>714</v>
       </c>
       <c r="M20" s="0"/>
       <c r="N20" s="0"/>
@@ -2529,7 +2859,7 @@
       <c r="A21" s="0"/>
       <c r="B21" s="0"/>
       <c r="C21" s="0" t="s">
-        <v>574</v>
+        <v>684</v>
       </c>
       <c r="D21" s="0">
         <v>1900</v>
@@ -2542,7 +2872,7 @@
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
       <c r="L21" s="0" t="s">
-        <v>604</v>
+        <v>714</v>
       </c>
       <c r="M21" s="0"/>
       <c r="N21" s="0"/>

--- a/databank/tabularTest-sheet.xlsx
+++ b/databank/tabularTest-sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="770">
   <si>
     <t>__yearly__</t>
   </si>
@@ -1004,6 +1004,171 @@
   </si>
   <si>
     <t>EOF</t>
+  </si>
+  <si>
+    <t>__yearly__</t>
+  </si>
+  <si>
+    <t>2020Y</t>
+  </si>
+  <si>
+    <t>2021Y</t>
+  </si>
+  <si>
+    <t>2022Y</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>__monthly__</t>
+  </si>
+  <si>
+    <t>2021M01</t>
+  </si>
+  <si>
+    <t>2021M02</t>
+  </si>
+  <si>
+    <t>2021M03</t>
+  </si>
+  <si>
+    <t>2021M04</t>
+  </si>
+  <si>
+    <t>2021M05</t>
+  </si>
+  <si>
+    <t>2021M06</t>
+  </si>
+  <si>
+    <t>2021M07</t>
+  </si>
+  <si>
+    <t>2021M08</t>
+  </si>
+  <si>
+    <t>2021M09</t>
+  </si>
+  <si>
+    <t>2021M10</t>
+  </si>
+  <si>
+    <t>2021M11</t>
+  </si>
+  <si>
+    <t>2021M12</t>
+  </si>
+  <si>
+    <t>2022M01</t>
+  </si>
+  <si>
+    <t>2022M02</t>
+  </si>
+  <si>
+    <t>2022M03</t>
+  </si>
+  <si>
+    <t>2022M04</t>
+  </si>
+  <si>
+    <t>2022M05</t>
+  </si>
+  <si>
+    <t>2022M06</t>
+  </si>
+  <si>
+    <t>2022M07</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>__daily__</t>
+  </si>
+  <si>
+    <t>2020-Jan-01</t>
+  </si>
+  <si>
+    <t>2020-Jan-02</t>
+  </si>
+  <si>
+    <t>2020-Jan-03</t>
+  </si>
+  <si>
+    <t>2020-Jan-04</t>
+  </si>
+  <si>
+    <t>2020-Jan-05</t>
+  </si>
+  <si>
+    <t>2020-Jan-06</t>
+  </si>
+  <si>
+    <t>2020-Jan-07</t>
+  </si>
+  <si>
+    <t>2020-Jan-08</t>
+  </si>
+  <si>
+    <t>2020-Jan-09</t>
+  </si>
+  <si>
+    <t>2020-Jan-10</t>
+  </si>
+  <si>
+    <t>2020-Jan-11</t>
+  </si>
+  <si>
+    <t>2020-Jan-12</t>
+  </si>
+  <si>
+    <t>2020-Jan-13</t>
+  </si>
+  <si>
+    <t>2020-Jan-14</t>
+  </si>
+  <si>
+    <t>2020-Jan-15</t>
+  </si>
+  <si>
+    <t>2020-Jan-16</t>
+  </si>
+  <si>
+    <t>2020-Jan-17</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>__nan__</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>__eof__</t>
   </si>
   <si>
     <t>__yearly__</t>
@@ -2210,15 +2375,15 @@
     <col min="1" max="1" width="10.5703125" customWidth="true"/>
     <col min="2" max="2" width="3.140625" customWidth="true"/>
     <col min="3" max="3" width="12.5703125" customWidth="true"/>
-    <col min="4" max="4" width="5.140625" customWidth="true"/>
-    <col min="5" max="5" width="2.28515625" customWidth="true"/>
-    <col min="6" max="6" width="11.42578125" customWidth="true"/>
+    <col min="4" max="4" width="12.5703125" customWidth="true"/>
+    <col min="5" max="5" width="5.140625" customWidth="true"/>
+    <col min="6" max="6" width="2.28515625" customWidth="true"/>
     <col min="7" max="7" width="3.140625" customWidth="true"/>
-    <col min="8" max="8" width="2.28515625" customWidth="true"/>
-    <col min="9" max="9" width="8.42578125" customWidth="true"/>
+    <col min="8" max="8" width="11.42578125" customWidth="true"/>
+    <col min="9" max="9" width="3.140625" customWidth="true"/>
     <col min="10" max="10" width="2.28515625" customWidth="true"/>
     <col min="11" max="11" width="2.140625" customWidth="true"/>
-    <col min="12" max="12" width="8.140625" customWidth="true"/>
+    <col min="12" max="12" width="8.42578125" customWidth="true"/>
     <col min="13" max="13" width="2.28515625" customWidth="true"/>
     <col min="14" max="14" width="2.140625" customWidth="true"/>
     <col min="15" max="15" width="9.140625"/>
@@ -2227,658 +2392,612 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>660</v>
+        <v>715</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>664</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>665</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="C1" s="0"/>
       <c r="D1" s="0" t="s">
-        <v>685</v>
+        <v>720</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>687</v>
+        <v>740</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>689</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>707</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="G1" s="0"/>
       <c r="H1" s="0" t="s">
-        <v>709</v>
+        <v>744</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>711</v>
+        <v>762</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>713</v>
-      </c>
+        <v>764</v>
+      </c>
+      <c r="K1" s="0"/>
       <c r="L1" s="0" t="s">
-        <v>714</v>
+        <v>766</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>437</v>
+        <v>767</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>438</v>
+        <v>768</v>
       </c>
       <c r="O1" s="0"/>
       <c r="P1" s="0" t="s">
-        <v>439</v>
+        <v>769</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0"/>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
-      <c r="D2" s="0" t="s">
-        <v>686</v>
-      </c>
+      <c r="D2" s="0"/>
       <c r="E2" s="0" t="s">
-        <v>688</v>
-      </c>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0" t="s">
-        <v>708</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>710</v>
-      </c>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
+        <v>741</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>765</v>
+      </c>
       <c r="K2" s="0"/>
-      <c r="L2" s="0" t="s">
-        <v>714</v>
-      </c>
+      <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
       <c r="O2" s="0"/>
       <c r="P2" s="0" t="s">
-        <v>439</v>
+        <v>769</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>661</v>
+        <v>716</v>
       </c>
       <c r="B3" s="0">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>666</v>
-      </c>
-      <c r="D3" s="0">
+      <c r="C3" s="0"/>
+      <c r="D3" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="E3" s="0">
         <v>100</v>
       </c>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0" t="s">
-        <v>690</v>
-      </c>
-      <c r="G3" s="0">
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="I3" s="0">
         <v>1</v>
       </c>
-      <c r="H3" s="0">
+      <c r="J3" s="0">
         <v>0</v>
       </c>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
       <c r="K3" s="0"/>
-      <c r="L3" s="0" t="s">
-        <v>714</v>
-      </c>
+      <c r="L3" s="0"/>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
       <c r="O3" s="0"/>
       <c r="P3" s="0" t="s">
-        <v>439</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>662</v>
+        <v>717</v>
       </c>
       <c r="B4" s="0">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>667</v>
-      </c>
-      <c r="D4" s="0">
+      <c r="C4" s="0"/>
+      <c r="D4" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="E4" s="0">
         <v>200</v>
       </c>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0" t="s">
-        <v>691</v>
-      </c>
-      <c r="G4" s="0">
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="I4" s="0">
         <v>2</v>
       </c>
-      <c r="H4" s="0"/>
-      <c r="I4" s="0"/>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
-      <c r="L4" s="0" t="s">
-        <v>714</v>
-      </c>
+      <c r="L4" s="0"/>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
       <c r="O4" s="0"/>
       <c r="P4" s="0" t="s">
-        <v>439</v>
+        <v>769</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>663</v>
+        <v>718</v>
       </c>
       <c r="B5" s="0">
         <v>15</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>668</v>
-      </c>
-      <c r="D5" s="0">
+      <c r="C5" s="0"/>
+      <c r="D5" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="E5" s="0">
         <v>300</v>
       </c>
-      <c r="E5" s="0"/>
-      <c r="F5" s="0" t="s">
-        <v>692</v>
-      </c>
-      <c r="G5" s="0">
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="I5" s="0">
         <v>3</v>
       </c>
-      <c r="H5" s="0"/>
-      <c r="I5" s="0"/>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
-      <c r="L5" s="0" t="s">
-        <v>714</v>
-      </c>
+      <c r="L5" s="0"/>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
       <c r="O5" s="0"/>
       <c r="P5" s="0" t="s">
-        <v>439</v>
+        <v>769</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0"/>
       <c r="B6" s="0"/>
-      <c r="C6" s="0" t="s">
-        <v>669</v>
-      </c>
-      <c r="D6" s="0">
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="E6" s="0">
         <v>400</v>
       </c>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0" t="s">
-        <v>693</v>
-      </c>
-      <c r="G6" s="0">
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="I6" s="0">
         <v>4</v>
       </c>
-      <c r="H6" s="0"/>
-      <c r="I6" s="0"/>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
-      <c r="L6" s="0" t="s">
-        <v>714</v>
-      </c>
+      <c r="L6" s="0"/>
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
       <c r="O6" s="0"/>
       <c r="P6" s="0" t="s">
-        <v>439</v>
+        <v>769</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0"/>
       <c r="B7" s="0"/>
-      <c r="C7" s="0" t="s">
-        <v>670</v>
-      </c>
-      <c r="D7" s="0">
+      <c r="C7" s="0"/>
+      <c r="D7" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="E7" s="0">
         <v>500</v>
       </c>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0" t="s">
-        <v>694</v>
-      </c>
-      <c r="G7" s="0">
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="I7" s="0">
         <v>5</v>
       </c>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
-      <c r="L7" s="0" t="s">
-        <v>714</v>
-      </c>
+      <c r="L7" s="0"/>
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
       <c r="O7" s="0"/>
       <c r="P7" s="0" t="s">
-        <v>439</v>
+        <v>769</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0"/>
       <c r="B8" s="0"/>
-      <c r="C8" s="0" t="s">
-        <v>671</v>
-      </c>
-      <c r="D8" s="0">
+      <c r="C8" s="0"/>
+      <c r="D8" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="E8" s="0">
         <v>600</v>
       </c>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0" t="s">
-        <v>695</v>
-      </c>
-      <c r="G8" s="0">
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="I8" s="0">
         <v>6</v>
       </c>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
-      <c r="L8" s="0" t="s">
-        <v>714</v>
-      </c>
+      <c r="L8" s="0"/>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
       <c r="O8" s="0"/>
       <c r="P8" s="0" t="s">
-        <v>439</v>
+        <v>769</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0"/>
       <c r="B9" s="0"/>
-      <c r="C9" s="0" t="s">
-        <v>672</v>
-      </c>
-      <c r="D9" s="0">
+      <c r="C9" s="0"/>
+      <c r="D9" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="E9" s="0">
         <v>700</v>
       </c>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0" t="s">
-        <v>696</v>
-      </c>
-      <c r="G9" s="0">
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="I9" s="0">
         <v>7</v>
       </c>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
-      <c r="L9" s="0" t="s">
-        <v>714</v>
-      </c>
+      <c r="L9" s="0"/>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
       <c r="O9" s="0"/>
       <c r="P9" s="0" t="s">
-        <v>439</v>
+        <v>769</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0"/>
       <c r="B10" s="0"/>
-      <c r="C10" s="0" t="s">
-        <v>673</v>
-      </c>
-      <c r="D10" s="0">
+      <c r="C10" s="0"/>
+      <c r="D10" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="E10" s="0">
         <v>800</v>
       </c>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0" t="s">
-        <v>697</v>
-      </c>
-      <c r="G10" s="0">
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="I10" s="0">
         <v>8</v>
       </c>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0"/>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
-      <c r="L10" s="0" t="s">
-        <v>714</v>
-      </c>
+      <c r="L10" s="0"/>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
       <c r="O10" s="0"/>
       <c r="P10" s="0" t="s">
-        <v>439</v>
+        <v>769</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0"/>
       <c r="B11" s="0"/>
-      <c r="C11" s="0" t="s">
-        <v>674</v>
-      </c>
-      <c r="D11" s="0">
+      <c r="C11" s="0"/>
+      <c r="D11" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="E11" s="0">
         <v>900</v>
       </c>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0" t="s">
-        <v>698</v>
-      </c>
-      <c r="G11" s="0">
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="I11" s="0">
         <v>9</v>
       </c>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
-      <c r="L11" s="0" t="s">
-        <v>714</v>
-      </c>
+      <c r="L11" s="0"/>
       <c r="M11" s="0"/>
       <c r="N11" s="0"/>
       <c r="O11" s="0"/>
       <c r="P11" s="0" t="s">
-        <v>439</v>
+        <v>769</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0"/>
       <c r="B12" s="0"/>
-      <c r="C12" s="0" t="s">
-        <v>675</v>
-      </c>
-      <c r="D12" s="0">
+      <c r="C12" s="0"/>
+      <c r="D12" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="E12" s="0">
         <v>1000</v>
       </c>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0" t="s">
-        <v>699</v>
-      </c>
-      <c r="G12" s="0">
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="I12" s="0">
         <v>10</v>
       </c>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
-      <c r="L12" s="0" t="s">
-        <v>714</v>
-      </c>
+      <c r="L12" s="0"/>
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
       <c r="O12" s="0"/>
       <c r="P12" s="0" t="s">
-        <v>439</v>
+        <v>769</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0"/>
       <c r="B13" s="0"/>
-      <c r="C13" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="D13" s="0">
+      <c r="C13" s="0"/>
+      <c r="D13" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="E13" s="0">
         <v>1100</v>
       </c>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0" t="s">
-        <v>700</v>
-      </c>
-      <c r="G13" s="0">
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="I13" s="0">
         <v>11</v>
       </c>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
-      <c r="L13" s="0" t="s">
-        <v>714</v>
-      </c>
+      <c r="L13" s="0"/>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
       <c r="O13" s="0"/>
       <c r="P13" s="0" t="s">
-        <v>439</v>
+        <v>769</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0"/>
       <c r="B14" s="0"/>
-      <c r="C14" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="D14" s="0">
+      <c r="C14" s="0"/>
+      <c r="D14" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="E14" s="0">
         <v>1200</v>
       </c>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0" t="s">
-        <v>701</v>
-      </c>
-      <c r="G14" s="0">
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="I14" s="0">
         <v>12</v>
       </c>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
-      <c r="L14" s="0" t="s">
-        <v>714</v>
-      </c>
+      <c r="L14" s="0"/>
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
       <c r="O14" s="0"/>
       <c r="P14" s="0" t="s">
-        <v>439</v>
+        <v>769</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0"/>
       <c r="B15" s="0"/>
-      <c r="C15" s="0" t="s">
-        <v>678</v>
-      </c>
-      <c r="D15" s="0">
+      <c r="C15" s="0"/>
+      <c r="D15" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="E15" s="0">
         <v>1300</v>
       </c>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0" t="s">
-        <v>702</v>
-      </c>
-      <c r="G15" s="0">
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="I15" s="0">
         <v>13</v>
       </c>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
-      <c r="L15" s="0" t="s">
-        <v>714</v>
-      </c>
+      <c r="L15" s="0"/>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
       <c r="O15" s="0"/>
       <c r="P15" s="0" t="s">
-        <v>439</v>
+        <v>769</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0"/>
       <c r="B16" s="0"/>
-      <c r="C16" s="0" t="s">
-        <v>679</v>
-      </c>
-      <c r="D16" s="0">
+      <c r="C16" s="0"/>
+      <c r="D16" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="E16" s="0">
         <v>1400</v>
       </c>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0" t="s">
-        <v>703</v>
-      </c>
-      <c r="G16" s="0">
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="I16" s="0">
         <v>14</v>
       </c>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
-      <c r="L16" s="0" t="s">
-        <v>714</v>
-      </c>
+      <c r="L16" s="0"/>
       <c r="M16" s="0"/>
       <c r="N16" s="0"/>
       <c r="O16" s="0"/>
       <c r="P16" s="0" t="s">
-        <v>439</v>
+        <v>769</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0"/>
       <c r="B17" s="0"/>
-      <c r="C17" s="0" t="s">
-        <v>680</v>
-      </c>
-      <c r="D17" s="0">
+      <c r="C17" s="0"/>
+      <c r="D17" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="E17" s="0">
         <v>1500</v>
       </c>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0" t="s">
-        <v>704</v>
-      </c>
-      <c r="G17" s="0">
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="I17" s="0">
         <v>15</v>
       </c>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
-      <c r="L17" s="0" t="s">
-        <v>714</v>
-      </c>
+      <c r="L17" s="0"/>
       <c r="M17" s="0"/>
       <c r="N17" s="0"/>
       <c r="O17" s="0"/>
       <c r="P17" s="0" t="s">
-        <v>439</v>
+        <v>769</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0"/>
       <c r="B18" s="0"/>
-      <c r="C18" s="0" t="s">
-        <v>681</v>
-      </c>
-      <c r="D18" s="0">
+      <c r="C18" s="0"/>
+      <c r="D18" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="E18" s="0">
         <v>1600</v>
       </c>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0" t="s">
-        <v>705</v>
-      </c>
-      <c r="G18" s="0">
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="I18" s="0">
         <v>16</v>
       </c>
-      <c r="H18" s="0"/>
-      <c r="I18" s="0"/>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
-      <c r="L18" s="0" t="s">
-        <v>714</v>
-      </c>
+      <c r="L18" s="0"/>
       <c r="M18" s="0"/>
       <c r="N18" s="0"/>
       <c r="O18" s="0"/>
       <c r="P18" s="0" t="s">
-        <v>439</v>
+        <v>769</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0"/>
       <c r="B19" s="0"/>
-      <c r="C19" s="0" t="s">
-        <v>682</v>
-      </c>
-      <c r="D19" s="0">
+      <c r="C19" s="0"/>
+      <c r="D19" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="E19" s="0">
         <v>1700</v>
       </c>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="G19" s="0">
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="I19" s="0">
         <v>17</v>
       </c>
-      <c r="H19" s="0">
+      <c r="J19" s="0">
         <v>0</v>
       </c>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
       <c r="K19" s="0"/>
-      <c r="L19" s="0" t="s">
-        <v>714</v>
-      </c>
+      <c r="L19" s="0"/>
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
       <c r="P19" s="0" t="s">
-        <v>439</v>
+        <v>769</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0"/>
       <c r="B20" s="0"/>
-      <c r="C20" s="0" t="s">
-        <v>683</v>
-      </c>
-      <c r="D20" s="0">
+      <c r="C20" s="0"/>
+      <c r="D20" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="E20" s="0">
         <v>1800</v>
       </c>
-      <c r="E20" s="0"/>
       <c r="F20" s="0"/>
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
-      <c r="L20" s="0" t="s">
-        <v>714</v>
-      </c>
+      <c r="L20" s="0"/>
       <c r="M20" s="0"/>
       <c r="N20" s="0"/>
       <c r="O20" s="0"/>
       <c r="P20" s="0" t="s">
-        <v>439</v>
+        <v>769</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0"/>
       <c r="B21" s="0"/>
-      <c r="C21" s="0" t="s">
-        <v>684</v>
-      </c>
-      <c r="D21" s="0">
+      <c r="C21" s="0"/>
+      <c r="D21" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="E21" s="0">
         <v>1900</v>
       </c>
-      <c r="E21" s="0"/>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
-      <c r="L21" s="0" t="s">
-        <v>714</v>
-      </c>
+      <c r="L21" s="0"/>
       <c r="M21" s="0"/>
       <c r="N21" s="0"/>
       <c r="O21" s="0"/>
       <c r="P21" s="0" t="s">
-        <v>439</v>
+        <v>769</v>
       </c>
     </row>
   </sheetData>

--- a/databank/tabularTest-sheet.xlsx
+++ b/databank/tabularTest-sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="880">
   <si>
     <t>__yearly__</t>
   </si>
@@ -1004,6 +1004,336 @@
   </si>
   <si>
     <t>EOF</t>
+  </si>
+  <si>
+    <t>__yearly__</t>
+  </si>
+  <si>
+    <t>2020Y</t>
+  </si>
+  <si>
+    <t>2021Y</t>
+  </si>
+  <si>
+    <t>2022Y</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>__monthly__</t>
+  </si>
+  <si>
+    <t>2021M01</t>
+  </si>
+  <si>
+    <t>2021M02</t>
+  </si>
+  <si>
+    <t>2021M03</t>
+  </si>
+  <si>
+    <t>2021M04</t>
+  </si>
+  <si>
+    <t>2021M05</t>
+  </si>
+  <si>
+    <t>2021M06</t>
+  </si>
+  <si>
+    <t>2021M07</t>
+  </si>
+  <si>
+    <t>2021M08</t>
+  </si>
+  <si>
+    <t>2021M09</t>
+  </si>
+  <si>
+    <t>2021M10</t>
+  </si>
+  <si>
+    <t>2021M11</t>
+  </si>
+  <si>
+    <t>2021M12</t>
+  </si>
+  <si>
+    <t>2022M01</t>
+  </si>
+  <si>
+    <t>2022M02</t>
+  </si>
+  <si>
+    <t>2022M03</t>
+  </si>
+  <si>
+    <t>2022M04</t>
+  </si>
+  <si>
+    <t>2022M05</t>
+  </si>
+  <si>
+    <t>2022M06</t>
+  </si>
+  <si>
+    <t>2022M07</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>__daily__</t>
+  </si>
+  <si>
+    <t>2020-Jan-01</t>
+  </si>
+  <si>
+    <t>2020-Jan-02</t>
+  </si>
+  <si>
+    <t>2020-Jan-03</t>
+  </si>
+  <si>
+    <t>2020-Jan-04</t>
+  </si>
+  <si>
+    <t>2020-Jan-05</t>
+  </si>
+  <si>
+    <t>2020-Jan-06</t>
+  </si>
+  <si>
+    <t>2020-Jan-07</t>
+  </si>
+  <si>
+    <t>2020-Jan-08</t>
+  </si>
+  <si>
+    <t>2020-Jan-09</t>
+  </si>
+  <si>
+    <t>2020-Jan-10</t>
+  </si>
+  <si>
+    <t>2020-Jan-11</t>
+  </si>
+  <si>
+    <t>2020-Jan-12</t>
+  </si>
+  <si>
+    <t>2020-Jan-13</t>
+  </si>
+  <si>
+    <t>2020-Jan-14</t>
+  </si>
+  <si>
+    <t>2020-Jan-15</t>
+  </si>
+  <si>
+    <t>2020-Jan-16</t>
+  </si>
+  <si>
+    <t>2020-Jan-17</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>__nan__</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>__eof__</t>
+  </si>
+  <si>
+    <t>__yearly__</t>
+  </si>
+  <si>
+    <t>2020Y</t>
+  </si>
+  <si>
+    <t>2021Y</t>
+  </si>
+  <si>
+    <t>2022Y</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>__monthly__</t>
+  </si>
+  <si>
+    <t>2021M01</t>
+  </si>
+  <si>
+    <t>2021M02</t>
+  </si>
+  <si>
+    <t>2021M03</t>
+  </si>
+  <si>
+    <t>2021M04</t>
+  </si>
+  <si>
+    <t>2021M05</t>
+  </si>
+  <si>
+    <t>2021M06</t>
+  </si>
+  <si>
+    <t>2021M07</t>
+  </si>
+  <si>
+    <t>2021M08</t>
+  </si>
+  <si>
+    <t>2021M09</t>
+  </si>
+  <si>
+    <t>2021M10</t>
+  </si>
+  <si>
+    <t>2021M11</t>
+  </si>
+  <si>
+    <t>2021M12</t>
+  </si>
+  <si>
+    <t>2022M01</t>
+  </si>
+  <si>
+    <t>2022M02</t>
+  </si>
+  <si>
+    <t>2022M03</t>
+  </si>
+  <si>
+    <t>2022M04</t>
+  </si>
+  <si>
+    <t>2022M05</t>
+  </si>
+  <si>
+    <t>2022M06</t>
+  </si>
+  <si>
+    <t>2022M07</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>__daily__</t>
+  </si>
+  <si>
+    <t>2020-Jan-01</t>
+  </si>
+  <si>
+    <t>2020-Jan-02</t>
+  </si>
+  <si>
+    <t>2020-Jan-03</t>
+  </si>
+  <si>
+    <t>2020-Jan-04</t>
+  </si>
+  <si>
+    <t>2020-Jan-05</t>
+  </si>
+  <si>
+    <t>2020-Jan-06</t>
+  </si>
+  <si>
+    <t>2020-Jan-07</t>
+  </si>
+  <si>
+    <t>2020-Jan-08</t>
+  </si>
+  <si>
+    <t>2020-Jan-09</t>
+  </si>
+  <si>
+    <t>2020-Jan-10</t>
+  </si>
+  <si>
+    <t>2020-Jan-11</t>
+  </si>
+  <si>
+    <t>2020-Jan-12</t>
+  </si>
+  <si>
+    <t>2020-Jan-13</t>
+  </si>
+  <si>
+    <t>2020-Jan-14</t>
+  </si>
+  <si>
+    <t>2020-Jan-15</t>
+  </si>
+  <si>
+    <t>2020-Jan-16</t>
+  </si>
+  <si>
+    <t>2020-Jan-17</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>__nan__</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>__eof__</t>
   </si>
   <si>
     <t>__yearly__</t>
@@ -2392,44 +2722,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>715</v>
+        <v>825</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>719</v>
+        <v>829</v>
       </c>
       <c r="C1" s="0"/>
       <c r="D1" s="0" t="s">
-        <v>720</v>
+        <v>830</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>740</v>
+        <v>850</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>742</v>
+        <v>852</v>
       </c>
       <c r="G1" s="0"/>
       <c r="H1" s="0" t="s">
-        <v>744</v>
+        <v>854</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>762</v>
+        <v>872</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>764</v>
+        <v>874</v>
       </c>
       <c r="K1" s="0"/>
       <c r="L1" s="0" t="s">
-        <v>766</v>
+        <v>876</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>767</v>
+        <v>877</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>768</v>
+        <v>878</v>
       </c>
       <c r="O1" s="0"/>
       <c r="P1" s="0" t="s">
-        <v>769</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2">
@@ -2438,18 +2768,18 @@
       <c r="C2" s="0"/>
       <c r="D2" s="0"/>
       <c r="E2" s="0" t="s">
-        <v>741</v>
+        <v>851</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>743</v>
+        <v>853</v>
       </c>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
       <c r="I2" s="0" t="s">
-        <v>763</v>
+        <v>873</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>765</v>
+        <v>875</v>
       </c>
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
@@ -2457,19 +2787,19 @@
       <c r="N2" s="0"/>
       <c r="O2" s="0"/>
       <c r="P2" s="0" t="s">
-        <v>769</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>716</v>
+        <v>826</v>
       </c>
       <c r="B3" s="0">
         <v>13</v>
       </c>
       <c r="C3" s="0"/>
       <c r="D3" s="0" t="s">
-        <v>721</v>
+        <v>831</v>
       </c>
       <c r="E3" s="0">
         <v>100</v>
@@ -2477,7 +2807,7 @@
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
       <c r="H3" s="0" t="s">
-        <v>745</v>
+        <v>855</v>
       </c>
       <c r="I3" s="0">
         <v>1</v>
@@ -2491,19 +2821,19 @@
       <c r="N3" s="0"/>
       <c r="O3" s="0"/>
       <c r="P3" s="0" t="s">
-        <v>769</v>
+        <v>879</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>717</v>
+        <v>827</v>
       </c>
       <c r="B4" s="0">
         <v>14</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" s="0" t="s">
-        <v>722</v>
+        <v>832</v>
       </c>
       <c r="E4" s="0">
         <v>200</v>
@@ -2511,7 +2841,7 @@
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
       <c r="H4" s="0" t="s">
-        <v>746</v>
+        <v>856</v>
       </c>
       <c r="I4" s="0">
         <v>2</v>
@@ -2523,19 +2853,19 @@
       <c r="N4" s="0"/>
       <c r="O4" s="0"/>
       <c r="P4" s="0" t="s">
-        <v>769</v>
+        <v>879</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>718</v>
+        <v>828</v>
       </c>
       <c r="B5" s="0">
         <v>15</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" s="0" t="s">
-        <v>723</v>
+        <v>833</v>
       </c>
       <c r="E5" s="0">
         <v>300</v>
@@ -2543,7 +2873,7 @@
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
       <c r="H5" s="0" t="s">
-        <v>747</v>
+        <v>857</v>
       </c>
       <c r="I5" s="0">
         <v>3</v>
@@ -2555,7 +2885,7 @@
       <c r="N5" s="0"/>
       <c r="O5" s="0"/>
       <c r="P5" s="0" t="s">
-        <v>769</v>
+        <v>879</v>
       </c>
     </row>
     <row r="6">
@@ -2563,7 +2893,7 @@
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
       <c r="D6" s="0" t="s">
-        <v>724</v>
+        <v>834</v>
       </c>
       <c r="E6" s="0">
         <v>400</v>
@@ -2571,7 +2901,7 @@
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
       <c r="H6" s="0" t="s">
-        <v>748</v>
+        <v>858</v>
       </c>
       <c r="I6" s="0">
         <v>4</v>
@@ -2583,7 +2913,7 @@
       <c r="N6" s="0"/>
       <c r="O6" s="0"/>
       <c r="P6" s="0" t="s">
-        <v>769</v>
+        <v>879</v>
       </c>
     </row>
     <row r="7">
@@ -2591,7 +2921,7 @@
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
       <c r="D7" s="0" t="s">
-        <v>725</v>
+        <v>835</v>
       </c>
       <c r="E7" s="0">
         <v>500</v>
@@ -2599,7 +2929,7 @@
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
       <c r="H7" s="0" t="s">
-        <v>749</v>
+        <v>859</v>
       </c>
       <c r="I7" s="0">
         <v>5</v>
@@ -2611,7 +2941,7 @@
       <c r="N7" s="0"/>
       <c r="O7" s="0"/>
       <c r="P7" s="0" t="s">
-        <v>769</v>
+        <v>879</v>
       </c>
     </row>
     <row r="8">
@@ -2619,7 +2949,7 @@
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
       <c r="D8" s="0" t="s">
-        <v>726</v>
+        <v>836</v>
       </c>
       <c r="E8" s="0">
         <v>600</v>
@@ -2627,7 +2957,7 @@
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="H8" s="0" t="s">
-        <v>750</v>
+        <v>860</v>
       </c>
       <c r="I8" s="0">
         <v>6</v>
@@ -2639,7 +2969,7 @@
       <c r="N8" s="0"/>
       <c r="O8" s="0"/>
       <c r="P8" s="0" t="s">
-        <v>769</v>
+        <v>879</v>
       </c>
     </row>
     <row r="9">
@@ -2647,7 +2977,7 @@
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
       <c r="D9" s="0" t="s">
-        <v>727</v>
+        <v>837</v>
       </c>
       <c r="E9" s="0">
         <v>700</v>
@@ -2655,7 +2985,7 @@
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="H9" s="0" t="s">
-        <v>751</v>
+        <v>861</v>
       </c>
       <c r="I9" s="0">
         <v>7</v>
@@ -2667,7 +2997,7 @@
       <c r="N9" s="0"/>
       <c r="O9" s="0"/>
       <c r="P9" s="0" t="s">
-        <v>769</v>
+        <v>879</v>
       </c>
     </row>
     <row r="10">
@@ -2675,7 +3005,7 @@
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
       <c r="D10" s="0" t="s">
-        <v>728</v>
+        <v>838</v>
       </c>
       <c r="E10" s="0">
         <v>800</v>
@@ -2683,7 +3013,7 @@
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="H10" s="0" t="s">
-        <v>752</v>
+        <v>862</v>
       </c>
       <c r="I10" s="0">
         <v>8</v>
@@ -2695,7 +3025,7 @@
       <c r="N10" s="0"/>
       <c r="O10" s="0"/>
       <c r="P10" s="0" t="s">
-        <v>769</v>
+        <v>879</v>
       </c>
     </row>
     <row r="11">
@@ -2703,7 +3033,7 @@
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
       <c r="D11" s="0" t="s">
-        <v>729</v>
+        <v>839</v>
       </c>
       <c r="E11" s="0">
         <v>900</v>
@@ -2711,7 +3041,7 @@
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="H11" s="0" t="s">
-        <v>753</v>
+        <v>863</v>
       </c>
       <c r="I11" s="0">
         <v>9</v>
@@ -2723,7 +3053,7 @@
       <c r="N11" s="0"/>
       <c r="O11" s="0"/>
       <c r="P11" s="0" t="s">
-        <v>769</v>
+        <v>879</v>
       </c>
     </row>
     <row r="12">
@@ -2731,7 +3061,7 @@
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0" t="s">
-        <v>730</v>
+        <v>840</v>
       </c>
       <c r="E12" s="0">
         <v>1000</v>
@@ -2739,7 +3069,7 @@
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="H12" s="0" t="s">
-        <v>754</v>
+        <v>864</v>
       </c>
       <c r="I12" s="0">
         <v>10</v>
@@ -2751,7 +3081,7 @@
       <c r="N12" s="0"/>
       <c r="O12" s="0"/>
       <c r="P12" s="0" t="s">
-        <v>769</v>
+        <v>879</v>
       </c>
     </row>
     <row r="13">
@@ -2759,7 +3089,7 @@
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
       <c r="D13" s="0" t="s">
-        <v>731</v>
+        <v>841</v>
       </c>
       <c r="E13" s="0">
         <v>1100</v>
@@ -2767,7 +3097,7 @@
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0" t="s">
-        <v>755</v>
+        <v>865</v>
       </c>
       <c r="I13" s="0">
         <v>11</v>
@@ -2779,7 +3109,7 @@
       <c r="N13" s="0"/>
       <c r="O13" s="0"/>
       <c r="P13" s="0" t="s">
-        <v>769</v>
+        <v>879</v>
       </c>
     </row>
     <row r="14">
@@ -2787,7 +3117,7 @@
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
       <c r="D14" s="0" t="s">
-        <v>732</v>
+        <v>842</v>
       </c>
       <c r="E14" s="0">
         <v>1200</v>
@@ -2795,7 +3125,7 @@
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0" t="s">
-        <v>756</v>
+        <v>866</v>
       </c>
       <c r="I14" s="0">
         <v>12</v>
@@ -2807,7 +3137,7 @@
       <c r="N14" s="0"/>
       <c r="O14" s="0"/>
       <c r="P14" s="0" t="s">
-        <v>769</v>
+        <v>879</v>
       </c>
     </row>
     <row r="15">
@@ -2815,7 +3145,7 @@
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="0" t="s">
-        <v>733</v>
+        <v>843</v>
       </c>
       <c r="E15" s="0">
         <v>1300</v>
@@ -2823,7 +3153,7 @@
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0" t="s">
-        <v>757</v>
+        <v>867</v>
       </c>
       <c r="I15" s="0">
         <v>13</v>
@@ -2835,7 +3165,7 @@
       <c r="N15" s="0"/>
       <c r="O15" s="0"/>
       <c r="P15" s="0" t="s">
-        <v>769</v>
+        <v>879</v>
       </c>
     </row>
     <row r="16">
@@ -2843,7 +3173,7 @@
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
       <c r="D16" s="0" t="s">
-        <v>734</v>
+        <v>844</v>
       </c>
       <c r="E16" s="0">
         <v>1400</v>
@@ -2851,7 +3181,7 @@
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0" t="s">
-        <v>758</v>
+        <v>868</v>
       </c>
       <c r="I16" s="0">
         <v>14</v>
@@ -2863,7 +3193,7 @@
       <c r="N16" s="0"/>
       <c r="O16" s="0"/>
       <c r="P16" s="0" t="s">
-        <v>769</v>
+        <v>879</v>
       </c>
     </row>
     <row r="17">
@@ -2871,7 +3201,7 @@
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
       <c r="D17" s="0" t="s">
-        <v>735</v>
+        <v>845</v>
       </c>
       <c r="E17" s="0">
         <v>1500</v>
@@ -2879,7 +3209,7 @@
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0" t="s">
-        <v>759</v>
+        <v>869</v>
       </c>
       <c r="I17" s="0">
         <v>15</v>
@@ -2891,7 +3221,7 @@
       <c r="N17" s="0"/>
       <c r="O17" s="0"/>
       <c r="P17" s="0" t="s">
-        <v>769</v>
+        <v>879</v>
       </c>
     </row>
     <row r="18">
@@ -2899,7 +3229,7 @@
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
       <c r="D18" s="0" t="s">
-        <v>736</v>
+        <v>846</v>
       </c>
       <c r="E18" s="0">
         <v>1600</v>
@@ -2907,7 +3237,7 @@
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0" t="s">
-        <v>760</v>
+        <v>870</v>
       </c>
       <c r="I18" s="0">
         <v>16</v>
@@ -2919,7 +3249,7 @@
       <c r="N18" s="0"/>
       <c r="O18" s="0"/>
       <c r="P18" s="0" t="s">
-        <v>769</v>
+        <v>879</v>
       </c>
     </row>
     <row r="19">
@@ -2927,7 +3257,7 @@
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
       <c r="D19" s="0" t="s">
-        <v>737</v>
+        <v>847</v>
       </c>
       <c r="E19" s="0">
         <v>1700</v>
@@ -2935,7 +3265,7 @@
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
       <c r="H19" s="0" t="s">
-        <v>761</v>
+        <v>871</v>
       </c>
       <c r="I19" s="0">
         <v>17</v>
@@ -2949,7 +3279,7 @@
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
       <c r="P19" s="0" t="s">
-        <v>769</v>
+        <v>879</v>
       </c>
     </row>
     <row r="20">
@@ -2957,7 +3287,7 @@
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
       <c r="D20" s="0" t="s">
-        <v>738</v>
+        <v>848</v>
       </c>
       <c r="E20" s="0">
         <v>1800</v>
@@ -2973,7 +3303,7 @@
       <c r="N20" s="0"/>
       <c r="O20" s="0"/>
       <c r="P20" s="0" t="s">
-        <v>769</v>
+        <v>879</v>
       </c>
     </row>
     <row r="21">
@@ -2981,7 +3311,7 @@
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
       <c r="D21" s="0" t="s">
-        <v>739</v>
+        <v>849</v>
       </c>
       <c r="E21" s="0">
         <v>1900</v>
@@ -2997,7 +3327,7 @@
       <c r="N21" s="0"/>
       <c r="O21" s="0"/>
       <c r="P21" s="0" t="s">
-        <v>769</v>
+        <v>879</v>
       </c>
     </row>
   </sheetData>
